--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google\JoeyTools\公司電話簿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF442AB7-886A-492E-AA75-975347C3F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13B73A-208D-4547-9952-995FAC70D234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Joey(王奕翔)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,146 @@
   </si>
   <si>
     <t>Jack(王顥霖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jennifer(蔡淑慧)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Becky(林淑玲)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tom(周育湘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thomas(陳永翰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annie(鄭聿涵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank(蘇仲康)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7708/7760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pika(陳松毅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kim(邱郁嫻)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark(陳文瑀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad(廖政程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adam(李牧丞)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin_Tsai(蔡亞哲)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven(譚華庭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin_Ho(何宗育)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kristy(李佳霓)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin_Yin(殷振祐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy(楊維勝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica(蔡家宜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marcus(王巍憲)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terry(陳宗業)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neil(劉鎮旗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arthur(薛峰雲)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xela(蕭綵瑄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Henry(林宸旭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caitlin(郭雅潔)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Willow(李薇凡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryan(李泓汶)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Richard(彭建偉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,40 +505,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>7726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>7704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>7702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>7702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>7735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>7729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>7731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>7733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>7761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C21">
         <v>7762</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>7726</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>7713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>7719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>7714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>7716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>7718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>7721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>7721</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google\JoeyTools\公司電話簿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13B73A-208D-4547-9952-995FAC70D234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F827A32-3241-4324-8AC2-33520B1E803F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Joey(王奕翔)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jennifer(蔡淑慧)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tom(周育湘)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,18 +156,6 @@
   </si>
   <si>
     <t>Richard(彭建偉)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>業務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,356 +481,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>7726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>7726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>7711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>7711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5">
+        <v>7704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>7710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>7704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
         <v>7712</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>7709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B11">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B12">
+        <v>7702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>7703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B13">
+        <v>7702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>7703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B14">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
-        <v>7702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B15">
+        <v>7735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
-        <v>7702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B16">
+        <v>7729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
-        <v>7701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B17">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
-        <v>7735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B18">
+        <v>7731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
-        <v>7729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B19">
+        <v>7733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
-        <v>7732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B20">
+        <v>7761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>7762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
-        <v>7731</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B22">
+        <v>7713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
-        <v>7733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B23">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
-        <v>7761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>7762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B24">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
-        <v>7713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B25">
+        <v>7719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="C23">
-        <v>7715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B26">
+        <v>7714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="C24">
-        <v>7717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B27">
+        <v>7716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="C25">
-        <v>7719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B28">
+        <v>7718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="C26">
-        <v>7714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B29">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="C27">
-        <v>7716</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B30">
+        <v>7721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="C28">
-        <v>7718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>7720</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>7721</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31">
+      <c r="B31">
         <v>7721</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google\JoeyTools\公司電話簿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F827A32-3241-4324-8AC2-33520B1E803F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0E8A2D-75F8-4F47-BBC0-702EAC55F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Joey(王奕翔)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,14 @@
   </si>
   <si>
     <t>Richard(彭建偉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,263 +489,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>7726</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>7711</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>7710</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>7704</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>7712</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>7709</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>7700</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>7703</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>7703</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>7702</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>7702</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>7701</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>7735</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>7729</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>7732</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>7731</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>7733</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>7761</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>7762</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>7713</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>7715</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>7717</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>7719</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>7714</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>7716</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>7718</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>7720</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>7721</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>7721</v>
       </c>
     </row>
